--- a/grafik.xlsx
+++ b/grafik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hybrid-app-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6646FEB0-3A80-476A-8100-031B8EE53DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2868576A-4C95-4CC2-B80B-99829A54D106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
-  <si>
-    <t>15/22.02.2022 - лекция</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>гл. ас. д-р Миглена Стоянова
 доц. д-р Иван Куюмджиев</t>
@@ -67,15 +64,6 @@
     <t>01.03.2022 - лекция</t>
   </si>
   <si>
-    <t>jQuery Mobile / Apache Cordova</t>
-  </si>
-  <si>
-    <t>02.03.2022 - упражнение</t>
-  </si>
-  <si>
-    <t>контролно + jQuery Mobile / Apache Cordova</t>
-  </si>
-  <si>
     <t>08.03.2022 - лекция</t>
   </si>
   <si>
@@ -88,49 +76,70 @@
     <t>10.03.2022 - упражнение</t>
   </si>
   <si>
+    <t>Onsen UI</t>
+  </si>
+  <si>
+    <t>15.03.2022 - лекция</t>
+  </si>
+  <si>
+    <t>17.03.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>доц. д-р Иван Куюмджиев</t>
+  </si>
+  <si>
+    <t>22.03.2022 - лекция</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>23.03.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>24.03.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>28.03.2022 - лекция</t>
+  </si>
+  <si>
+    <t>31.03.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Клиент-сървър архитектура / Въведение в инструментите Kinvey и Postman</t>
+  </si>
+  <si>
+    <t>Основи на jQuery</t>
+  </si>
+  <si>
+    <t>Основи в JavaScript</t>
+  </si>
+  <si>
+    <t>22.02.2022 - лекция</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jQuery Mobile / Apache Cordova</t>
+  </si>
+  <si>
     <t>контролно</t>
   </si>
   <si>
-    <t>Onsen UI</t>
-  </si>
-  <si>
-    <t>15.03.2022 - лекция</t>
-  </si>
-  <si>
-    <t>17.03.2022 - упражнение</t>
-  </si>
-  <si>
-    <t>доц. д-р Иван Куюмджиев</t>
-  </si>
-  <si>
-    <t>22.03.2022 - лекция</t>
-  </si>
-  <si>
-    <t>React</t>
-  </si>
-  <si>
-    <t>23.03.2022 - упражнение</t>
-  </si>
-  <si>
-    <t>24.03.2022 - упражнение</t>
-  </si>
-  <si>
-    <t>28.03.2022 - лекция</t>
-  </si>
-  <si>
-    <t>31.03.2022 - упражнение</t>
-  </si>
-  <si>
-    <t>Workshop</t>
-  </si>
-  <si>
-    <t>Въведение в Github / Основи в JavaScript</t>
-  </si>
-  <si>
-    <t>Клиент-сървър архитектура / Въведение в инструментите Kinvey и Postman</t>
-  </si>
-  <si>
-    <t>Основи на jQuery</t>
+    <t>Apache Cordova</t>
+  </si>
+  <si>
+    <t>jQuery Mobile</t>
+  </si>
+  <si>
+    <t>04.04.2022 - лекция</t>
+  </si>
+  <si>
+    <t>06.04.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>07.04.2022 - упражнение</t>
   </si>
 </sst>
 </file>
@@ -146,12 +155,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,11 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,203 +480,206 @@
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/grafik.xlsx
+++ b/grafik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hybrid-app-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2868576A-4C95-4CC2-B80B-99829A54D106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51F2637-C58B-470D-A679-783FB78DC44C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>гл. ас. д-р Миглена Стоянова
 доц. д-р Иван Куюмджиев</t>
@@ -100,18 +100,9 @@
     <t>24.03.2022 - упражнение</t>
   </si>
   <si>
-    <t>28.03.2022 - лекция</t>
-  </si>
-  <si>
     <t>31.03.2022 - упражнение</t>
   </si>
   <si>
-    <t>Workshop</t>
-  </si>
-  <si>
-    <t>Клиент-сървър архитектура / Въведение в инструментите Kinvey и Postman</t>
-  </si>
-  <si>
     <t>Основи на jQuery</t>
   </si>
   <si>
@@ -133,13 +124,49 @@
     <t>jQuery Mobile</t>
   </si>
   <si>
-    <t>04.04.2022 - лекция</t>
-  </si>
-  <si>
     <t>06.04.2022 - упражнение</t>
   </si>
   <si>
     <t>07.04.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>Въведение в инструментите GitHub, Kinvey и Postman</t>
+  </si>
+  <si>
+    <t>Workshop Софтуерна архитектура</t>
+  </si>
+  <si>
+    <t>29.03.2022 - лекция</t>
+  </si>
+  <si>
+    <t>05.04.2022 - лекция</t>
+  </si>
+  <si>
+    <t>12.04.2022 - лекция</t>
+  </si>
+  <si>
+    <t>14.04.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>19.04.2022 - лекция</t>
+  </si>
+  <si>
+    <t>20.04.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>21.04.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>26.04.2022 - лекция</t>
+  </si>
+  <si>
+    <t>28.04.2022 - упражнение</t>
+  </si>
+  <si>
+    <t>Подготовка на курсов проект</t>
+  </si>
+  <si>
+    <t>Представяне на курсов проект</t>
   </si>
 </sst>
 </file>
@@ -467,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -496,10 +523,10 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -532,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -544,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -566,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -577,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -588,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -621,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -629,7 +656,7 @@
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -638,47 +665,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
         <v>1</v>
       </c>
     </row>

--- a/grafik.xlsx
+++ b/grafik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hybrid-app-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51F2637-C58B-470D-A679-783FB78DC44C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD60125-F88F-4FC6-8C1F-22CC1A3947FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/grafik.xlsx
+++ b/grafik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hybrid-app-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD60125-F88F-4FC6-8C1F-22CC1A3947FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD5C90E-2DC1-4C70-BC95-53F80DFFB8F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
